--- a/440_msia/02_hw/02_hw_q2.xlsx
+++ b/440_msia/02_hw/02_hw_q2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AD8A01-AF4D-46C0-AB2D-B848519C77C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="21446" windowHeight="15746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question_2" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <definedName name="OpenSolver_DualsNewSheet" localSheetId="0" hidden="1">0</definedName>
     <definedName name="OpenSolver_LinearityCheck" localSheetId="0" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Question_2!$H$20:$H$37</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Question_2!$H$20:$H$36</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
@@ -37,6 +38,7 @@
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Question_2!$K$25</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel11" localSheetId="0" hidden="1">3</definedName>
@@ -73,12 +75,12 @@
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Year1</t>
   </si>
@@ -222,9 +224,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total Invested </t>
-  </si>
-  <si>
-    <t>Initial Capital</t>
   </si>
   <si>
     <t>Present Value</t>
@@ -233,7 +232,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -328,23 +327,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -352,17 +355,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -393,20 +385,26 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>898071</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="OpenSolver1"/>
+        <xdr:cNvPr id="14" name="OpenSolver1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D91A90-A775-C63D-79E4-989CB20BD572}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="3619500"/>
-          <a:ext cx="847725" cy="3429000"/>
+          <a:off x="6585857" y="3516086"/>
+          <a:ext cx="898071" cy="3145971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -421,98 +419,11 @@
           <a:prstDash val="solid"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
           <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF00FF"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="OpenSolver2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9172575" y="4572000"/>
-          <a:ext cx="2438400" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF00FF"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
+            <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
@@ -543,24 +454,111 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>717550</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>778328</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>215214</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>919842</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="OpenSolver3"/>
+        <xdr:cNvPr id="15" name="OpenSolver2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C85586-7C27-BFF5-6D0C-B81F415CA0F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9156700" y="4495800"/>
+          <a:off x="9726385" y="4441372"/>
+          <a:ext cx="2585357" cy="185057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>767443</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>112486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>220203</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="OpenSolver3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E79919-6315-DAB8-DB54-F3C430282EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="4368800"/>
           <a:ext cx="231089" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -581,7 +579,7 @@
             <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
+                  <a:shade val="15000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:prstDash val="solid"/>
@@ -592,7 +590,7 @@
       <xdr:style>
         <a:lnRef idx="2">
           <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
+            <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
@@ -633,20 +631,26 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>898071</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="OpenSolverH4:H17"/>
+        <xdr:cNvPr id="17" name="OpenSolverH4:H17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5293B669-FDBF-39AD-72D9-CD6A54F4FCFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="571500"/>
-          <a:ext cx="847725" cy="2667000"/>
+          <a:off x="6585857" y="555171"/>
+          <a:ext cx="898071" cy="2590801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -672,7 +676,7 @@
       <xdr:style>
         <a:lnRef idx="2">
           <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
+            <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
@@ -707,9 +711,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -747,9 +751,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -784,7 +788,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -819,7 +823,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -992,29 +996,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.69140625" customWidth="1"/>
+    <col min="6" max="6" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.69140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23.53515625" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="6.69140625" customWidth="1"/>
+    <col min="14" max="14" width="7.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="14" t="s">
         <v>24</v>
       </c>
@@ -1024,541 +1028,521 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="9"/>
       <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="14"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="10">
+      <c r="K3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
         <v>12</v>
       </c>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="5">
         <f>$H$20 * $C$22</f>
-        <v>0.77006969999999997</v>
-      </c>
-      <c r="D4" s="10">
+        <v>4.4216878800000003</v>
+      </c>
+      <c r="D4" s="5">
         <f t="shared" ref="D4:D13" si="0">$H$21 * $D$22</f>
-        <v>1.6338951850000001</v>
-      </c>
-      <c r="E4" s="10">
+        <v>5.0185441800000001</v>
+      </c>
+      <c r="E4" s="5">
         <f t="shared" ref="E4:E16" si="1">$H$22 * $E$22</f>
         <v>2.1627906750000001</v>
       </c>
-      <c r="F4" s="10">
-        <f>H24 * (1 + $C$26)</f>
-        <v>9.0488787999999989</v>
-      </c>
-      <c r="G4" s="10">
-        <f>C4+D4+E4+(F4-H24)</f>
-        <v>4.9147893600000003</v>
-      </c>
-      <c r="H4" s="10">
-        <f>G4 - L3 + H23 * (1 + $C$26)</f>
-        <v>-3.9999998868722741E-8</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="K4" s="5" t="s">
+      <c r="F4" s="5">
+        <f>H23 * (1 + $C$26)</f>
+        <v>0.38227437040000001</v>
+      </c>
+      <c r="G4" s="5">
+        <f>C4+D4+E4+(F4-H23)</f>
+        <v>11.6177255954</v>
+      </c>
+      <c r="H4" s="5">
+        <f>G4 - L3 + H23*(1+$C$26)</f>
+        <v>-3.4200000387230034E-8</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="K4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="5">
         <v>14</v>
       </c>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="5">
         <f>$H$20 * $C$22</f>
-        <v>0.77006969999999997</v>
-      </c>
-      <c r="D5" s="10">
+        <v>4.4216878800000003</v>
+      </c>
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>1.6338951850000001</v>
-      </c>
-      <c r="E5" s="10">
+        <v>5.0185441800000001</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" si="1"/>
         <v>2.1627906750000001</v>
       </c>
-      <c r="F5" s="10">
-        <f t="shared" ref="F5:F17" si="2">H25 * (1 + $C$26)</f>
-        <v>9.9935042480000007</v>
-      </c>
-      <c r="G5" s="10">
-        <f t="shared" ref="G5:G17" si="3">C5+D5+E5+(F5-H25)</f>
-        <v>4.9511211080000006</v>
-      </c>
-      <c r="H5" s="10">
-        <f>G5 - L4 + H24 * (1 + $C$26)</f>
-        <v>-9.2000000506686774E-8</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="F5" s="5">
+        <f>H24 * (1 + $C$26)</f>
+        <v>2.3082003360000001</v>
+      </c>
+      <c r="G5" s="5">
+        <f>C5+D5+E5+(F5-H24)</f>
+        <v>11.691799671</v>
+      </c>
+      <c r="H5" s="5">
+        <f>G5 - L4 + (H24+H4)*(1+$C$26)</f>
+        <v>-2.8567999965645186E-8</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="5">
         <v>15</v>
       </c>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="5">
         <f>$H$20 * $C$22</f>
-        <v>0.77006969999999997</v>
-      </c>
-      <c r="D6" s="10">
+        <v>4.4216878800000003</v>
+      </c>
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>1.6338951850000001</v>
-      </c>
-      <c r="E6" s="10">
+        <v>5.0185441800000001</v>
+      </c>
+      <c r="E6" s="5">
         <f t="shared" si="1"/>
         <v>2.1627906750000001</v>
       </c>
-      <c r="F6" s="10">
-        <f t="shared" si="2"/>
-        <v>11.433244160000001</v>
-      </c>
-      <c r="G6" s="10">
-        <f t="shared" si="3"/>
-        <v>5.006495720000002</v>
-      </c>
-      <c r="H6" s="10">
-        <f>G6 - L5 + H25 * (1 + $C$26)</f>
-        <v>-3.1999997318621354E-8</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="F6" s="5">
+        <f>H25 * (1 + $C$26)</f>
+        <v>3.2711632719999999</v>
+      </c>
+      <c r="G6" s="5">
+        <f>C6+D6+E6+(F6-H25)</f>
+        <v>11.728836706999999</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" ref="H6:H17" si="2">G6 - L5 + (H25+H5)*(1+$C$26)</f>
+        <v>-5.0710720511659702E-8</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="5">
         <v>16</v>
       </c>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="5">
         <f>$H$20 * $C$22</f>
-        <v>0.77006969999999997</v>
-      </c>
-      <c r="D7" s="10">
+        <v>4.4216878800000003</v>
+      </c>
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>1.6338951850000001</v>
-      </c>
-      <c r="E7" s="10">
+        <v>5.0185441800000001</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="1"/>
         <v>2.1627906750000001</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="5">
+        <f>H26 * (1 + $C$26)</f>
+        <v>4.2341262080000002</v>
+      </c>
+      <c r="G7" s="5">
+        <f>C7+D7+E7+(F7-H26)</f>
+        <v>11.765873743</v>
+      </c>
+      <c r="H7" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <f t="shared" si="3"/>
-        <v>4.5667555600000007</v>
-      </c>
-      <c r="H7" s="10">
-        <f>G7 - L6 + H26 * (1 + $C$26)</f>
-        <v>-2.7999999829830813E-7</v>
-      </c>
-      <c r="K7" s="5" t="s">
+        <v>-1.0173914866129508E-7</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="5">
         <v>18</v>
       </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="5">
         <f>$H$20 * ($C$22 + $C$24)</f>
-        <v>13.604564700000001</v>
-      </c>
-      <c r="D8" s="10">
+        <v>78.116485880000013</v>
+      </c>
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>1.6338951850000001</v>
-      </c>
-      <c r="E8" s="10">
+        <v>5.0185441800000001</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="1"/>
         <v>2.1627906750000001</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="5">
+        <f>H27 * (1 + $C$26)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <f>C8+D8+E8+(F8-H27)</f>
+        <v>85.297820735000016</v>
+      </c>
+      <c r="H8" s="5">
         <f t="shared" si="2"/>
-        <v>15.56747296</v>
-      </c>
-      <c r="G8" s="10">
-        <f t="shared" si="3"/>
-        <v>17.999999520000003</v>
-      </c>
-      <c r="H8" s="10">
-        <f>G8 - L7 + H27 * (1 + $C$26)</f>
-        <v>-4.7999999708281393E-7</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>67.297820629191307</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="5">
         <v>20</v>
       </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>1.6338951850000001</v>
-      </c>
-      <c r="E9" s="10">
+        <v>5.0185441800000001</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="1"/>
         <v>2.1627906750000001</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="5">
+        <f>H28 * (1 + $C$26)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <f>C9+D9+E9+(F9-H28)</f>
+        <v>7.1813348550000002</v>
+      </c>
+      <c r="H9" s="5">
         <f t="shared" si="2"/>
-        <v>16.531867040000002</v>
-      </c>
-      <c r="G9" s="10">
-        <f t="shared" si="3"/>
-        <v>4.4325269000000009</v>
-      </c>
-      <c r="H9" s="10">
-        <f>G9 - L8 + H28 * (1 + $C$26)</f>
-        <v>-1.3999999914915406E-7</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>57.171068309358958</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="5">
         <v>21</v>
       </c>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>1.6338951850000001</v>
-      </c>
-      <c r="E10" s="10">
+        <v>5.0185441800000001</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="1"/>
         <v>2.1627906750000001</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="5">
+        <f>H29 * (1 + $C$26)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <f>C10+D10+E10+(F10-H29)</f>
+        <v>7.1813348550000002</v>
+      </c>
+      <c r="H10" s="5">
         <f t="shared" si="2"/>
-        <v>17.457629279999999</v>
-      </c>
-      <c r="G10" s="10">
-        <f t="shared" si="3"/>
-        <v>4.4681331399999991</v>
-      </c>
-      <c r="H10" s="10">
-        <f>G10 - L9 + H29 * (1 + $C$26)</f>
-        <v>1.8000000068241206E-7</v>
-      </c>
-      <c r="K10" s="5" t="s">
+        <v>45.639245896733314</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="5">
         <v>22</v>
       </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>1.6338951850000001</v>
-      </c>
-      <c r="E11" s="10">
+        <v>5.0185441800000001</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="1"/>
         <v>2.1627906750000001</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="5">
+        <f>H30 * (1 + $C$26)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <f>C11+D11+E11+(F11-H30)</f>
+        <v>7.1813348550000002</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="2"/>
-        <v>19.387801679999999</v>
-      </c>
-      <c r="G11" s="10">
-        <f t="shared" si="3"/>
-        <v>4.5423705400000003</v>
-      </c>
-      <c r="H11" s="10">
-        <f>G11 - L10 + H30 * (1 + $C$26)</f>
-        <v>-1.8000000068241206E-7</v>
-      </c>
-      <c r="K11" s="5" t="s">
+        <v>32.646150587602648</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="5">
         <v>24</v>
       </c>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="10">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>1.6338951850000001</v>
-      </c>
-      <c r="E12" s="10">
+        <v>5.0185441800000001</v>
+      </c>
+      <c r="E12" s="5">
         <f t="shared" si="1"/>
         <v>2.1627906750000001</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="5">
+        <f>H31 * (1 + $C$26)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <f>C12+D12+E12+(F12-H31)</f>
+        <v>7.1813348550000002</v>
+      </c>
+      <c r="H12" s="5">
         <f t="shared" si="2"/>
-        <v>21.203314080000002</v>
-      </c>
-      <c r="G12" s="10">
-        <f t="shared" si="3"/>
-        <v>4.6121979400000015</v>
-      </c>
-      <c r="H12" s="10">
-        <f>G12 - L11 + H31 * (1 + $C$26)</f>
-        <v>-3.7999999946691787E-7</v>
-      </c>
-      <c r="K12" s="5" t="s">
+        <v>17.133331466106757</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="5">
         <v>25</v>
       </c>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="10">
-        <v>0</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>1.6338951850000001</v>
-      </c>
-      <c r="E13" s="10">
+        <v>5.0185441800000001</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="1"/>
         <v>2.1627906750000001</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="5">
+        <f>H32 * (1 + $C$26)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <f>C13+D13+E13+(F13-H32)</f>
+        <v>7.1813348550000002</v>
+      </c>
+      <c r="H13" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <f t="shared" si="3"/>
-        <v>3.7966858600000002</v>
-      </c>
-      <c r="H13" s="10">
-        <f>G13 - L12 + H32 * (1 + $C$26)</f>
-        <v>-5.9999997858994902E-8</v>
-      </c>
-      <c r="K13" s="5" t="s">
+        <v>-4.2024897339842937E-7</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="10">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
         <f>$H$21 * ($D$22 + $D$24)</f>
-        <v>26.770744185000002</v>
-      </c>
-      <c r="E14" s="10">
+        <v>82.226916179999989</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="1"/>
         <v>2.1627906750000001</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="5">
+        <f>H33 * (1 + $C$26)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <f>C14+D14+E14+(F14-H33)</f>
+        <v>84.389706854999986</v>
+      </c>
+      <c r="H14" s="5">
         <f t="shared" si="2"/>
-        <v>27.728085840000002</v>
-      </c>
-      <c r="G14" s="10">
-        <f t="shared" si="3"/>
-        <v>29.999999700000004</v>
-      </c>
-      <c r="H14" s="10">
-        <f>G14 - L13 + H33 * (1 + $C$26)</f>
-        <v>-2.9999999640040187E-7</v>
-      </c>
-      <c r="K14" s="5" t="s">
+        <v>54.389706417941056</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="10">
-        <v>0</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
         <v>2.1627906750000001</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="5">
+        <f>H34 * (1 + $C$26)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <f>C15+D15+E15+(F15-H34)</f>
+        <v>2.1627906750000001</v>
+      </c>
+      <c r="H15" s="5">
         <f t="shared" si="2"/>
-        <v>28.837209440000002</v>
-      </c>
-      <c r="G15" s="10">
-        <f t="shared" si="3"/>
-        <v>3.2719141150000013</v>
-      </c>
-      <c r="H15" s="10">
-        <f>G15 - L14 + H34 * (1 + $C$26)</f>
-        <v>-4.4999996617889337E-8</v>
-      </c>
-      <c r="K15" s="5" t="s">
+        <v>27.728085349658702</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="5">
         <v>31</v>
       </c>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="10">
-        <v>0</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
         <v>2.1627906750000001</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="5">
+        <f>H35 * (1 + $C$26)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <f>C16+D16+E16+(F16-H35)</f>
+        <v>2.1627906750000001</v>
+      </c>
+      <c r="H16" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
-        <f t="shared" si="3"/>
-        <v>2.1627906750000001</v>
-      </c>
-      <c r="H16" s="10">
-        <f>G16 - L15 + H35 * (1 + $C$26)</f>
-        <v>1.1500000240971531E-7</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="K16" s="5" t="s">
+        <v>-5.6135494830300559E-7</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="K16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="5">
         <v>31</v>
       </c>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="3">
         <v>14</v>
       </c>
-      <c r="C17" s="10">
-        <v>0</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
         <f>$H$22 * ($E$22 + $E$24)</f>
         <v>30.999999675000002</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="5">
+        <f>H36 * (1 + $C$26)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <f>C17+D17+E17+(F17-H36)</f>
+        <v>30.999999675000002</v>
+      </c>
+      <c r="H17" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="10">
-        <f t="shared" si="3"/>
-        <v>30.999999675000002</v>
-      </c>
-      <c r="H17" s="10">
-        <f>G17 - L16 + H36 * (1 + $C$26)</f>
-        <v>-3.2499999846891114E-7</v>
-      </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+        <v>-9.0880914470403697E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="G19" s="12" t="s">
         <v>46</v>
       </c>
@@ -1568,307 +1552,293 @@
       </c>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="2">
-        <v>12.834495</v>
-      </c>
-      <c r="K20" s="4" t="s">
+      <c r="H20" s="1">
+        <v>73.694798000000006</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="5">
         <f>C21*H20</f>
-        <v>12.577805100000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+        <v>72.220902039999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="5">
         <v>0.98</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="5">
         <v>0.97</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="5">
         <v>1.05</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="2">
-        <v>25.136849000000002</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="H21" s="1">
+        <v>77.208371999999997</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="5">
         <f>D21*H21</f>
-        <v>24.382743530000003</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+        <v>74.89212083999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="5">
         <v>0.06</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>28.837209000000001</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="I22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="5">
         <f>E21*H22</f>
         <v>30.279069450000001</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="9">
         <v>5</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="9">
         <v>11</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="9">
         <v>14</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="11">
-        <v>6.8127025000000003</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="G23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.36757150999999999</v>
+      </c>
+      <c r="I23" s="5">
+        <f>H23/(1+$C$26)^B4</f>
+        <v>0.35343414423076919</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="5">
         <v>1</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="5">
         <v>1</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="5">
         <v>1</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="11">
-        <v>8.7008449999999993</v>
-      </c>
-      <c r="I24" s="2">
-        <f>H24/(1+$C$26)^B4</f>
-        <v>8.3661971153846135</v>
+      <c r="G24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2.2194234000000002</v>
+      </c>
+      <c r="I24" s="5">
+        <f>H24/(1+$C$26)^B5</f>
+        <v>2.0519816937869821</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>47</v>
       </c>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="G25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="11">
-        <v>9.6091387000000008</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" ref="I25:I37" si="4">H25/(1+$C$26)^B5</f>
-        <v>8.8841888868343197</v>
-      </c>
-      <c r="K25" s="19">
-        <f>SUM(L20:L22) + SUM(I24:I37) + H23</f>
-        <v>201.28164344056586</v>
-      </c>
-      <c r="L25" s="18"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="G25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="6">
+        <v>3.1453492999999999</v>
+      </c>
+      <c r="I25" s="5">
+        <f>H25/(1+$C$26)^B6</f>
+        <v>2.7962040744481107</v>
+      </c>
+      <c r="K25" s="10">
+        <f>SUM(L20:L22) + SUM(I23:I36)</f>
+        <v>186.07385534626124</v>
+      </c>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="4">
         <v>0.04</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="G26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="11">
-        <v>10.993504</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" si="4"/>
-        <v>9.7731850250341363</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G27" s="3" t="s">
+      <c r="G26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="15"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G28" s="3" t="s">
+      <c r="H26" s="6">
+        <v>4.0712751999999996</v>
+      </c>
+      <c r="I26" s="5">
+        <f>H26/(1+$C$26)^B7</f>
+        <v>3.4801431037953843</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="G27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="11">
-        <v>14.968724</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="4"/>
-        <v>12.303200009199267</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G29" s="3" t="s">
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <f>H27/(1+$C$26)^B8</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="G28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="11">
-        <v>15.896026000000001</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="4"/>
-        <v>12.562860249184066</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G30" s="3" t="s">
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <f>H28/(1+$C$26)^B9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="G29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="11">
-        <v>16.786182</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="4"/>
-        <v>12.756118717451837</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G31" s="3" t="s">
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <f>H29/(1+$C$26)^B10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="G30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="11">
-        <v>18.642116999999999</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="4"/>
-        <v>13.621612292400966</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G32" s="3" t="s">
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <f>H30/(1+$C$26)^B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="G31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="11">
-        <v>20.387802000000001</v>
-      </c>
-      <c r="I32" s="2">
-        <f t="shared" si="4"/>
-        <v>14.324199252807553</v>
-      </c>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G33" s="3" t="s">
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f>H31/(1+$C$26)^B12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="G32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="11">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G34" s="3" t="s">
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <f>H32/(1+$C$26)^B13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="11">
-        <v>26.661621</v>
-      </c>
-      <c r="I34" s="2">
-        <f t="shared" si="4"/>
-        <v>17.318880606166786</v>
-      </c>
-    </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G35" s="3" t="s">
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <f>H33/(1+$C$26)^B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="11">
-        <v>27.728086000000001</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" si="4"/>
-        <v>17.318880706102309</v>
-      </c>
-    </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G36" s="3" t="s">
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <f>H34/(1+$C$26)^B15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G37" s="3" t="s">
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <f>H35/(1+$C$26)^B16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="11">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="4"/>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <f>H36/(1+$C$26)^B17</f>
         <v>0</v>
       </c>
     </row>
